--- a/content/section5/131.xlsx
+++ b/content/section5/131.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Dropbox\DM Video Productions\MOS Certification\MOS Excel core\TIY Plus Resources\134\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\surana\2026\excel\workshop\content\section5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30ADBCB-A231-4227-92F6-4C11FE0F5BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D30C25-A45F-4C1B-ACF3-0620B5E1C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing Plan Budget" sheetId="1" r:id="rId1"/>
-    <sheet name="Maintenance Schedule" sheetId="2" r:id="rId2"/>
-    <sheet name="Profit Forecast" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="Maintenance Schedule" sheetId="2" r:id="rId3"/>
+    <sheet name="Profit Forecast" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Advances">#REF!</definedName>
@@ -29,6 +30,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -623,7 +633,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,7 +652,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2217,7 +2226,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>116601</xdr:colOff>
+      <xdr:colOff>634761</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>66137</xdr:rowOff>
     </xdr:to>
@@ -2598,39 +2607,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="8" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="8" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2686,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2699,7 +2709,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2721,9 +2731,8 @@
       <c r="G6" s="1">
         <v>23000</v>
       </c>
-      <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2745,9 +2754,8 @@
       <c r="G7" s="1">
         <v>10000</v>
       </c>
-      <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2769,9 +2777,8 @@
       <c r="G8" s="1">
         <v>36000</v>
       </c>
-      <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2801,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2816,9 +2823,8 @@
       <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -2847,14 +2853,14 @@
         <v>411000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="15" t="s">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2866,16 +2872,17 @@
       <formula>500000000</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{C90485F9-A415-40B0-814B-C306A4A287B5}">
       <formula1>500000</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup scale="50" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;CMurphy&amp;RDublin</oddHeader>
-    <oddFooter>&amp;L&amp;P of &amp;N &amp;D&amp;D &amp;T&amp;C&amp;Z&amp;F &amp;F &amp;A</oddFooter>
+    <oddFooter>&amp;LMOS University&amp;C&amp;P -  &amp;D</oddFooter>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="B11:G11" formulaRange="1"/>
@@ -2887,6 +2894,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1681C-041D-4D9D-8186-1297D148E135}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -2894,35 +2916,35 @@
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2969,7 +2991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3010,7 +3032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3051,7 +3073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3133,12 +3155,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3148,7 +3170,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3158,7 +3180,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3190,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -3192,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -3200,25 +3222,25 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="7" width="11.5546875" customWidth="1"/>
+    <col min="12" max="13" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +3263,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3264,7 +3286,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3287,7 +3309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3310,7 +3332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -3379,7 +3401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -3402,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3431,11 +3453,11 @@
         <v>987</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
